--- a/database/en_synonym.xlsx
+++ b/database/en_synonym.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">term</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t xml:space="preserve">bore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">woe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grief</t>
   </si>
 </sst>
 </file>
@@ -132,10 +138,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -166,6 +172,14 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/database/en_synonym.xlsx
+++ b/database/en_synonym.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">term</t>
   </si>
@@ -38,6 +38,33 @@
   </si>
   <si>
     <t xml:space="preserve">grief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guilt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pleasure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passivity</t>
   </si>
 </sst>
 </file>
@@ -47,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -68,6 +95,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,13 +144,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -138,10 +178,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -180,6 +220,46 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
